--- a/data_experiments/CRP_avoll_glcxfrc.xlsx
+++ b/data_experiments/CRP_avoll_glcxfrc.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floodlight\ft_Regulation_Katrin\data_experiments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108AB64E-41EA-47C0-92EC-E4C484F8B1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="135" yWindow="540" windowWidth="11325" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>RctFlag</t>
   </si>
@@ -326,13 +343,19 @@
   </si>
   <si>
     <t>CRP_r</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>%Flux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -380,26 +403,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,7 +486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +518,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,6 +570,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,14 +763,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +794,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -729,16 +818,24 @@
         <v>2.52</v>
       </c>
       <c r="F2">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G2">
         <v>2.96721506434932</v>
       </c>
       <c r="H2">
-        <v>7.477381962160287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>7.4773819621602868</v>
+      </c>
+      <c r="I2">
+        <f>E2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>H2/F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -763,8 +860,16 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">E3/D3</f>
+        <v>1.5994400201987407</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J66" si="1">H3/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,22 +880,30 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1.785</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="E4">
-        <v>1.785</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="F4">
-        <v>-5.139138853503174</v>
+        <v>-5.1391388535031739</v>
       </c>
       <c r="G4">
-        <v>-2.879069385716064</v>
+        <v>-2.8790693857160639</v>
       </c>
       <c r="H4">
-        <v>-5.139138853503174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-5.1391388535031739</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,22 +914,30 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1.677695501221392</v>
+        <v>1.6776955012213921</v>
       </c>
       <c r="E5">
-        <v>2.685366181144049</v>
+        <v>2.6853661811440488</v>
       </c>
       <c r="F5">
-        <v>-16.02352614316762</v>
+        <v>-16.023526143167619</v>
       </c>
       <c r="G5">
-        <v>-9.550914412956468</v>
+        <v>-9.5509144129564678</v>
       </c>
       <c r="H5">
-        <v>-25.64770256355457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-25.647702563554571</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.6006278726914716</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.600627872691472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -827,22 +948,30 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>1.314</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="E6">
-        <v>1.314</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="F6">
-        <v>4.959984944574646</v>
+        <v>4.9599849445746456</v>
       </c>
       <c r="G6">
-        <v>3.774722180041587</v>
+        <v>3.7747221800415871</v>
       </c>
       <c r="H6">
-        <v>4.959984944574646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>4.9599849445746456</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -856,7 +985,7 @@
         <v>1.417385833692931</v>
       </c>
       <c r="E7">
-        <v>2.403170080270092</v>
+        <v>2.4031700802700922</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -867,8 +996,16 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.6954946374825459</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -879,10 +1016,10 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>2.416</v>
+        <v>2.4159999999999999</v>
       </c>
       <c r="E8">
-        <v>2.416</v>
+        <v>2.4159999999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -893,8 +1030,16 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -905,22 +1050,30 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1.495</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="E9">
-        <v>1.495</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="F9">
         <v>-14.71613956874285</v>
       </c>
       <c r="G9">
-        <v>-9.843571617888193</v>
+        <v>-9.8435716178881929</v>
       </c>
       <c r="H9">
         <v>-14.71613956874285</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -931,22 +1084,30 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>1.172</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="E10">
-        <v>1.172</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="F10">
-        <v>3.214895047684765</v>
+        <v>3.2148950476847649</v>
       </c>
       <c r="G10">
-        <v>2.743084511676421</v>
+        <v>2.7430845116764209</v>
       </c>
       <c r="H10">
-        <v>3.214895047684765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3.2148950476847649</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -957,10 +1118,10 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E11">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -971,8 +1132,16 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -997,8 +1166,16 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1012,7 +1189,7 @@
         <v>1.646638609692187</v>
       </c>
       <c r="E13">
-        <v>2.654622413806533</v>
+        <v>2.6546224138065329</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1023,8 +1200,16 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.6121463435761247</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1041,16 +1226,24 @@
         <v>1.125</v>
       </c>
       <c r="F14">
-        <v>2.504309470368731</v>
+        <v>2.5043094703687312</v>
       </c>
       <c r="G14">
-        <v>2.226052862549983</v>
+        <v>2.2260528625499831</v>
       </c>
       <c r="H14">
-        <v>2.504309470368731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>2.5043094703687312</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1061,22 +1254,30 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>2.183</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="E15">
-        <v>2.183</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="F15">
-        <v>6.007249575350349</v>
+        <v>6.0072495753503494</v>
       </c>
       <c r="G15">
         <v>2.75183214628967</v>
       </c>
       <c r="H15">
-        <v>6.007249575350349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>6.0072495753503494</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1087,22 +1288,30 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="E16">
-        <v>2.336</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="F16">
-        <v>6.007249575350357</v>
+        <v>6.0072495753503574</v>
       </c>
       <c r="G16">
-        <v>2.571596564790393</v>
+        <v>2.5715965647903931</v>
       </c>
       <c r="H16">
-        <v>6.007249575350357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>6.0072495753503574</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1119,16 +1328,24 @@
         <v>1.012</v>
       </c>
       <c r="F17">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="G17">
-        <v>8.290513833992096</v>
+        <v>8.2905138339920956</v>
       </c>
       <c r="H17">
-        <v>8.390000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>8.39</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1153,8 +1370,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.7797287814189413</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1165,10 +1390,10 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>2.553</v>
+        <v>2.5529999999999999</v>
       </c>
       <c r="E19">
-        <v>2.553</v>
+        <v>2.5529999999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1179,8 +1404,16 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1205,8 +1438,16 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1217,10 +1458,10 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>1.654</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="E21">
-        <v>1.654</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1231,8 +1472,16 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1249,16 +1498,24 @@
         <v>2.693517608436816</v>
       </c>
       <c r="F22">
-        <v>5.064375661482113</v>
+        <v>5.0643756614821127</v>
       </c>
       <c r="G22">
-        <v>3.003666424167624</v>
+        <v>3.0036664241676241</v>
       </c>
       <c r="H22">
-        <v>8.090428403365943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>8.0904284033659426</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1.5975174323853851</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.5975174323853853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1269,22 +1526,30 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>1.263</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="E23">
-        <v>1.263</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="F23">
-        <v>45.51400977451757</v>
+        <v>45.514009774517568</v>
       </c>
       <c r="G23">
-        <v>36.03642895844622</v>
+        <v>36.036428958446223</v>
       </c>
       <c r="H23">
-        <v>45.51400977451757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>45.514009774517568</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1309,8 +1574,16 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1321,22 +1594,30 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>2.167</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="E25">
-        <v>2.167</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="F25">
         <v>1.758177444106805</v>
       </c>
       <c r="G25">
-        <v>0.8113416908660843</v>
+        <v>0.81134169086608432</v>
       </c>
       <c r="H25">
         <v>1.758177444106805</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1347,10 +1628,10 @@
         <v>31</v>
       </c>
       <c r="D26">
-        <v>1.019</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="E26">
-        <v>1.019</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="F26">
         <v>0.8739215069684303</v>
@@ -1361,8 +1642,16 @@
       <c r="H26">
         <v>0.8739215069684303</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1373,10 +1662,10 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <v>2.187</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="E27">
-        <v>2.187</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1387,8 +1676,16 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1405,16 +1702,24 @@
         <v>1.522</v>
       </c>
       <c r="F28">
-        <v>-22.80983331020501</v>
+        <v>-22.809833310205011</v>
       </c>
       <c r="G28">
         <v>-14.98674987529896</v>
       </c>
       <c r="H28">
-        <v>-22.80983331020501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-22.809833310205011</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1439,8 +1744,16 @@
       <c r="H29">
         <v>2.678481850507521</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1454,19 +1767,27 @@
         <v>1.625739961291762</v>
       </c>
       <c r="E30">
-        <v>2.633493870457127</v>
+        <v>2.6334938704571269</v>
       </c>
       <c r="F30">
-        <v>6.007249575350349</v>
+        <v>6.0072495753503494</v>
       </c>
       <c r="G30">
-        <v>3.695086371978689</v>
+        <v>3.6950863719786891</v>
       </c>
       <c r="H30">
         <v>9.730987311415543</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1.6198739854832842</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>1.6198739854832851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1477,22 +1798,30 @@
         <v>36</v>
       </c>
       <c r="D31">
-        <v>1.455</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="E31">
-        <v>1.455</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="F31">
-        <v>-2.281503094067124</v>
+        <v>-2.2815030940671241</v>
       </c>
       <c r="G31">
-        <v>-1.568043363620017</v>
+        <v>-1.5680433636200171</v>
       </c>
       <c r="H31">
-        <v>-2.281503094067124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-2.2815030940671241</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1506,7 +1835,7 @@
         <v>1.685169648532987</v>
       </c>
       <c r="E32">
-        <v>2.692648618443074</v>
+        <v>2.6926486184430738</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1517,8 +1846,16 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1.597850175373821</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1529,22 +1866,30 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E33">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F33">
-        <v>43.59898531199762</v>
+        <v>43.598985311997623</v>
       </c>
       <c r="G33">
-        <v>38.58317284247577</v>
+        <v>38.583172842475769</v>
       </c>
       <c r="H33">
-        <v>43.59898531199762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>43.598985311997623</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1555,10 +1900,10 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <v>2.102</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="E34">
-        <v>2.102</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1569,8 +1914,16 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1581,22 +1934,30 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <v>1.932</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="E35">
-        <v>1.932</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="F35">
         <v>14.71613956874285</v>
       </c>
       <c r="G35">
-        <v>7.617049466223007</v>
+        <v>7.6170494662230066</v>
       </c>
       <c r="H35">
         <v>14.71613956874285</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1607,10 +1968,10 @@
         <v>41</v>
       </c>
       <c r="D36">
-        <v>4.863</v>
+        <v>4.8630000000000004</v>
       </c>
       <c r="E36">
-        <v>4.863</v>
+        <v>4.8630000000000004</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1621,8 +1982,16 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1647,8 +2016,16 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1659,22 +2036,30 @@
         <v>43</v>
       </c>
       <c r="D38">
-        <v>1.597048575673531</v>
+        <v>1.5970485756735311</v>
       </c>
       <c r="E38">
-        <v>2.603906324412683</v>
+        <v>2.6039063244126832</v>
       </c>
       <c r="F38">
-        <v>5.064375661482113</v>
+        <v>5.0643756614821127</v>
       </c>
       <c r="G38">
-        <v>3.171084298012844</v>
+        <v>3.1710842980128442</v>
       </c>
       <c r="H38">
-        <v>8.257206458841399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>8.2572064588413987</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1.6304490446162698</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>1.6304490446162696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1685,22 +2070,30 @@
         <v>44</v>
       </c>
       <c r="D39">
-        <v>1.559196027682945</v>
+        <v>1.5591960276829451</v>
       </c>
       <c r="E39">
-        <v>2.563838156008334</v>
+        <v>2.5638381560083339</v>
       </c>
       <c r="F39">
-        <v>-5.064375661482113</v>
+        <v>-5.0643756614821127</v>
       </c>
       <c r="G39">
-        <v>-3.248068601744751</v>
+        <v>-3.2480686017447509</v>
       </c>
       <c r="H39">
-        <v>-8.32752221448583</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-8.3275222144858301</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>1.6443334324153871</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>1.6443334324153873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1711,22 +2104,30 @@
         <v>45</v>
       </c>
       <c r="D40">
-        <v>2.042</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="E40">
-        <v>2.042</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="F40">
         <v>1.496983757261563</v>
       </c>
       <c r="G40">
-        <v>0.7330968448881309</v>
+        <v>0.73309684488813087</v>
       </c>
       <c r="H40">
         <v>1.496983757261563</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1737,10 +2138,10 @@
         <v>46</v>
       </c>
       <c r="D41">
-        <v>1.469</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="E41">
-        <v>1.469</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1751,8 +2152,16 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1763,22 +2172,30 @@
         <v>47</v>
       </c>
       <c r="D42">
-        <v>1.987</v>
+        <v>1.9870000000000001</v>
       </c>
       <c r="E42">
-        <v>1.987</v>
+        <v>1.9870000000000001</v>
       </c>
       <c r="F42">
         <v>1.496983757261563</v>
       </c>
       <c r="G42">
-        <v>0.7533889065231822</v>
+        <v>0.75338890652318224</v>
       </c>
       <c r="H42">
         <v>1.496983757261563</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1795,16 +2212,24 @@
         <v>1.796</v>
       </c>
       <c r="F43">
-        <v>1.181498093245959</v>
+        <v>1.1814980932459589</v>
       </c>
       <c r="G43">
-        <v>0.6578497178429614</v>
+        <v>0.65784971784296142</v>
       </c>
       <c r="H43">
-        <v>1.181498093245959</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>1.1814980932459589</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1821,16 +2246,24 @@
         <v>1.641</v>
       </c>
       <c r="F44">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G44">
         <v>4.556600830079395</v>
       </c>
       <c r="H44">
-        <v>7.477381962160287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>7.4773819621602868</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1841,10 +2274,10 @@
         <v>50</v>
       </c>
       <c r="D45">
-        <v>1.977</v>
+        <v>1.9770000000000001</v>
       </c>
       <c r="E45">
-        <v>1.977</v>
+        <v>1.9770000000000001</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1855,8 +2288,16 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1867,10 +2308,10 @@
         <v>51</v>
       </c>
       <c r="D46">
-        <v>1.687</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="E46">
-        <v>1.687</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1881,8 +2322,16 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1893,10 +2342,10 @@
         <v>52</v>
       </c>
       <c r="D47">
-        <v>2.368</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="E47">
-        <v>2.368</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1907,8 +2356,16 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1919,22 +2376,30 @@
         <v>53</v>
       </c>
       <c r="D48">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="E48">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F48">
-        <v>22.80983331020501</v>
+        <v>22.809833310205011</v>
       </c>
       <c r="G48">
         <v>24.73951552082973</v>
       </c>
       <c r="H48">
-        <v>22.80983331020501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22.809833310205011</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1945,10 +2410,10 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>3.989</v>
+        <v>3.9889999999999999</v>
       </c>
       <c r="E49">
-        <v>3.989</v>
+        <v>3.9889999999999999</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1959,8 +2424,16 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1971,10 +2444,10 @@
         <v>55</v>
       </c>
       <c r="D50">
-        <v>3.527</v>
+        <v>3.5270000000000001</v>
       </c>
       <c r="E50">
-        <v>3.527</v>
+        <v>3.5270000000000001</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1985,8 +2458,16 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1997,22 +2478,30 @@
         <v>56</v>
       </c>
       <c r="D51">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E51">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F51">
         <v>-10</v>
       </c>
       <c r="G51">
-        <v>-4.464285714285714</v>
+        <v>-4.4642857142857144</v>
       </c>
       <c r="H51">
         <v>-10</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2023,10 +2512,10 @@
         <v>57</v>
       </c>
       <c r="D52">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="E52">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2037,8 +2526,16 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2063,8 +2560,16 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2075,10 +2580,10 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <v>2.162</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="E54">
-        <v>2.162</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2089,8 +2594,16 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2115,8 +2628,16 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2133,16 +2654,24 @@
         <v>1.653</v>
       </c>
       <c r="F56">
-        <v>17.53086542978668</v>
+        <v>17.530865429786679</v>
       </c>
       <c r="G56">
-        <v>10.60548422854609</v>
+        <v>10.605484228546089</v>
       </c>
       <c r="H56">
-        <v>17.53086542978668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17.530865429786679</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2153,10 +2682,10 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>1.033</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="E57">
-        <v>1.033</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="F57">
         <v>29.17582713556579</v>
@@ -2167,8 +2696,16 @@
       <c r="H57">
         <v>29.17582713556579</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2179,10 +2716,10 @@
         <v>63</v>
       </c>
       <c r="D58">
-        <v>1.406</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="E58">
-        <v>1.406</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2193,8 +2730,16 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2205,10 +2750,10 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E59">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2219,8 +2764,16 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2231,22 +2784,30 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>1.134</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="E60">
-        <v>1.134</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="F60">
-        <v>-4.765319193197463</v>
+        <v>-4.7653191931974632</v>
       </c>
       <c r="G60">
-        <v>-4.202221510756141</v>
+        <v>-4.2022215107561411</v>
       </c>
       <c r="H60">
-        <v>-4.765319193197463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-4.7653191931974632</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2257,22 +2818,30 @@
         <v>66</v>
       </c>
       <c r="D61">
-        <v>3.926</v>
+        <v>3.9260000000000002</v>
       </c>
       <c r="E61">
-        <v>3.926</v>
+        <v>3.9260000000000002</v>
       </c>
       <c r="F61">
-        <v>-21.79949265599881</v>
+        <v>-21.799492655998812</v>
       </c>
       <c r="G61">
-        <v>-5.552596193580949</v>
+        <v>-5.5525961935809489</v>
       </c>
       <c r="H61">
-        <v>-21.79949265599881</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-21.799492655998812</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2289,16 +2858,24 @@
         <v>1.605</v>
       </c>
       <c r="F62">
-        <v>-3.214895047684765</v>
+        <v>-3.2148950476847649</v>
       </c>
       <c r="G62">
-        <v>-2.003049873946894</v>
+        <v>-2.0030498739468938</v>
       </c>
       <c r="H62">
-        <v>-3.214895047684765</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-3.2148950476847649</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2309,10 +2886,10 @@
         <v>68</v>
       </c>
       <c r="D63">
-        <v>1.987</v>
+        <v>1.9870000000000001</v>
       </c>
       <c r="E63">
-        <v>1.987</v>
+        <v>1.9870000000000001</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2323,8 +2900,16 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2335,10 +2920,10 @@
         <v>69</v>
       </c>
       <c r="D64">
-        <v>1.146</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="E64">
-        <v>1.146</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2349,8 +2934,16 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2364,19 +2957,27 @@
         <v>1.65685133291875</v>
       </c>
       <c r="E65">
-        <v>2.664818358825937</v>
+        <v>2.6648183588259369</v>
       </c>
       <c r="F65">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G65">
-        <v>4.513007180305035</v>
+        <v>4.5130071803050349</v>
       </c>
       <c r="H65">
-        <v>12.02634438759013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12.026344387590131</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>1.6083629869986751</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>1.6083629869986749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2390,7 +2991,7 @@
         <v>1.510271512064564</v>
       </c>
       <c r="E66">
-        <v>2.510297448588355</v>
+        <v>2.5102974485883549</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2401,8 +3002,16 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>1.6621497714386073</v>
+      </c>
+      <c r="J66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2427,8 +3036,16 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <f t="shared" ref="I67:I98" si="2">E67/D67</f>
+        <v>1.6079948036042466</v>
+      </c>
+      <c r="J67" t="e">
+        <f t="shared" ref="J67:J98" si="3">H67/F67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2439,10 +3056,10 @@
         <v>73</v>
       </c>
       <c r="D68">
-        <v>1.43053597208507</v>
+        <v>1.4305359720850701</v>
       </c>
       <c r="E68">
-        <v>2.418774214246031</v>
+        <v>2.4187742142460311</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2453,8 +3070,16 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>1.6908167717869824</v>
+      </c>
+      <c r="J68" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2479,8 +3104,16 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2491,7 +3124,7 @@
         <v>75</v>
       </c>
       <c r="D70">
-        <v>1.697370255745381</v>
+        <v>1.6973702557453809</v>
       </c>
       <c r="E70">
         <v>2.704439677702295</v>
@@ -2500,13 +3133,21 @@
         <v>10</v>
       </c>
       <c r="G70">
-        <v>5.891466500105844</v>
+        <v>5.8914665001058442</v>
       </c>
       <c r="H70">
         <v>15.93311576274011</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70">
+        <f t="shared" si="2"/>
+        <v>1.5933115762740115</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>1.5933115762740111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2523,16 +3164,24 @@
         <v>2.572645915616778</v>
       </c>
       <c r="F71">
-        <v>5.064375661482114</v>
+        <v>5.0643756614821136</v>
       </c>
       <c r="G71">
         <v>3.231022469113352</v>
       </c>
       <c r="H71">
-        <v>8.3122767584305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>8.3122767584304995</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="2"/>
+        <v>1.6413230996370978</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>1.6413230996370978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2543,10 +3192,10 @@
         <v>77</v>
       </c>
       <c r="D72">
-        <v>1.602715630687663</v>
+        <v>1.6027156306876631</v>
       </c>
       <c r="E72">
-        <v>2.609803776300198</v>
+        <v>2.6098037763001982</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2557,8 +3206,16 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <f t="shared" si="2"/>
+        <v>1.6283635888547694</v>
+      </c>
+      <c r="J72" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2569,22 +3226,30 @@
         <v>78</v>
       </c>
       <c r="D73">
-        <v>1.662</v>
+        <v>1.6619999999999999</v>
       </c>
       <c r="E73">
-        <v>1.662</v>
+        <v>1.6619999999999999</v>
       </c>
       <c r="F73">
         <v>4.95998494457465</v>
       </c>
       <c r="G73">
-        <v>2.984347138733243</v>
+        <v>2.9843471387332432</v>
       </c>
       <c r="H73">
         <v>4.95998494457465</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2601,16 +3266,24 @@
         <v>2.458613551712364</v>
       </c>
       <c r="F74">
-        <v>16.02352614316762</v>
+        <v>16.023526143167619</v>
       </c>
       <c r="G74">
-        <v>10.93995992098738</v>
+        <v>10.939959920987381</v>
       </c>
       <c r="H74">
-        <v>26.8971337169297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>26.897133716929702</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="2"/>
+        <v>1.678602666891678</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>1.6786026668916789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2621,10 +3294,10 @@
         <v>80</v>
       </c>
       <c r="D75">
-        <v>1.700553180360938</v>
+        <v>1.7005531803609379</v>
       </c>
       <c r="E75">
-        <v>2.707496088606956</v>
+        <v>2.7074960886069559</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2635,8 +3308,16 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <f t="shared" si="2"/>
+        <v>1.5921266796445006</v>
+      </c>
+      <c r="J75" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2647,22 +3328,30 @@
         <v>81</v>
       </c>
       <c r="D76">
-        <v>1.403526177609486</v>
+        <v>1.4035261776094861</v>
       </c>
       <c r="E76">
-        <v>2.386567396351618</v>
+        <v>2.3865673963516181</v>
       </c>
       <c r="F76">
-        <v>0.2234617293318288</v>
+        <v>0.22346172933182881</v>
       </c>
       <c r="G76">
-        <v>0.1592145076427668</v>
+        <v>0.15921450764276679</v>
       </c>
       <c r="H76">
-        <v>0.3799761529664027</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.37997615296640269</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="2"/>
+        <v>1.7004081822089472</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>1.7004081822089467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2687,8 +3376,16 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2702,19 +3399,27 @@
         <v>1.591</v>
       </c>
       <c r="E78">
-        <v>0.5844172159309778</v>
+        <v>0.58441721593097784</v>
       </c>
       <c r="F78">
         <v>-4.541857463865635</v>
       </c>
       <c r="G78">
-        <v>-2.854718707646534</v>
+        <v>-2.8547187076465339</v>
       </c>
       <c r="H78">
-        <v>-1.668346759388866</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-1.6683467593888659</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="2"/>
+        <v>0.3673269741866611</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>0.36732697418666105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2725,10 +3430,10 @@
         <v>84</v>
       </c>
       <c r="D79">
-        <v>1.797</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="E79">
-        <v>1.797</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2739,8 +3444,16 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2751,10 +3464,10 @@
         <v>85</v>
       </c>
       <c r="D80">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="E80">
-        <v>0.1348975304646299</v>
+        <v>0.13489753046462991</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2765,8 +3478,16 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <f t="shared" si="2"/>
+        <v>0.14552052908805815</v>
+      </c>
+      <c r="J80" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2777,10 +3498,10 @@
         <v>86</v>
       </c>
       <c r="D81">
-        <v>2.971</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="E81">
-        <v>2.971</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2791,8 +3512,16 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2803,22 +3532,30 @@
         <v>87</v>
       </c>
       <c r="D82">
-        <v>0.799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E82">
-        <v>0.799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="F82">
-        <v>4.959984944574646</v>
+        <v>4.9599849445746456</v>
       </c>
       <c r="G82">
-        <v>6.207740856789293</v>
+        <v>6.2077408567892931</v>
       </c>
       <c r="H82">
-        <v>4.959984944574646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>4.9599849445746456</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2843,8 +3580,16 @@
       <c r="H83">
         <v>-29.17582713556579</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2855,22 +3600,30 @@
         <v>89</v>
       </c>
       <c r="D84">
-        <v>1.664</v>
+        <v>1.6639999999999999</v>
       </c>
       <c r="E84">
-        <v>1.664</v>
+        <v>1.6639999999999999</v>
       </c>
       <c r="F84">
-        <v>6.007249575350357</v>
+        <v>6.0072495753503574</v>
       </c>
       <c r="G84">
         <v>3.610125946724974</v>
       </c>
       <c r="H84">
-        <v>6.007249575350357</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>6.0072495753503574</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2881,7 +3634,7 @@
         <v>90</v>
       </c>
       <c r="D85">
-        <v>2.564</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="E85">
         <v>1.862883171235278</v>
@@ -2895,8 +3648,16 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>0.72655349892171528</v>
+      </c>
+      <c r="J85" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2921,8 +3682,16 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2936,7 +3705,7 @@
         <v>1.482</v>
       </c>
       <c r="E87">
-        <v>0.4855471523989173</v>
+        <v>0.48554715239891733</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2947,8 +3716,16 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <f t="shared" si="2"/>
+        <v>0.32762965748914802</v>
+      </c>
+      <c r="J87" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2962,7 +3739,7 @@
         <v>1.660567151038786</v>
       </c>
       <c r="E88">
-        <v>2.66850709096778</v>
+        <v>2.6685070909677799</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2973,8 +3750,16 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <f t="shared" si="2"/>
+        <v>1.6069853539487795</v>
+      </c>
+      <c r="J88" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2988,19 +3773,27 @@
         <v>1.690691276692686</v>
       </c>
       <c r="E89">
-        <v>2.697999724059711</v>
+        <v>2.6979997240597111</v>
       </c>
       <c r="F89">
-        <v>5.064375661482114</v>
+        <v>5.0643756614821136</v>
       </c>
       <c r="G89">
-        <v>2.995446733119128</v>
+        <v>2.9954467331191279</v>
       </c>
       <c r="H89">
-        <v>8.08171445939097</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>8.0817144593909696</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>1.5957967969986289</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>1.5957967969986289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3011,10 +3804,10 @@
         <v>95</v>
       </c>
       <c r="D90">
-        <v>1.813</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="E90">
-        <v>1.813</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3025,8 +3818,16 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3051,8 +3852,16 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3069,16 +3878,24 @@
         <v>1.087</v>
       </c>
       <c r="F92">
-        <v>38.5346096505155</v>
+        <v>38.534609650515499</v>
       </c>
       <c r="G92">
-        <v>35.4504228615598</v>
+        <v>35.450422861559801</v>
       </c>
       <c r="H92">
-        <v>38.5346096505155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>38.534609650515499</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3089,10 +3906,10 @@
         <v>98</v>
       </c>
       <c r="D93">
-        <v>1.924</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="E93">
-        <v>1.924</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3103,8 +3920,16 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3115,22 +3940,30 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>1.449</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="E94">
-        <v>1.449</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="F94">
-        <v>4.765319193197463</v>
+        <v>4.7653191931974632</v>
       </c>
       <c r="G94">
-        <v>3.288695095374371</v>
+        <v>3.2886950953743712</v>
       </c>
       <c r="H94">
-        <v>4.765319193197463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>4.7653191931974632</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3141,22 +3974,30 @@
         <v>100</v>
       </c>
       <c r="D95">
-        <v>1.729</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="E95">
-        <v>1.729</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="F95">
-        <v>21.79949265599881</v>
+        <v>21.799492655998812</v>
       </c>
       <c r="G95">
         <v>12.60815075534922</v>
       </c>
       <c r="H95">
-        <v>21.79949265599881</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21.799492655998812</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3170,19 +4011,27 @@
         <v>1.698490029191811</v>
       </c>
       <c r="E96">
-        <v>2.705515869874578</v>
+        <v>2.7055158698745778</v>
       </c>
       <c r="F96">
-        <v>9.282532599166631</v>
+        <v>9.2825325991666308</v>
       </c>
       <c r="G96">
-        <v>5.465167554491632</v>
+        <v>5.4651675544916323</v>
       </c>
       <c r="H96">
-        <v>14.78609755020075</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14.786097550200751</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="2"/>
+        <v>1.592894761449932</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>1.5928947614499323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3205,10 +4054,18 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H97">
-        <v>20.11176470588235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>20.111764705882351</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="2"/>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>2.0111764705882349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3231,7 +4088,15 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H98">
-        <v>20.11176470588235</v>
+        <v>20.111764705882351</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="2"/>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>2.0111764705882349</v>
       </c>
     </row>
   </sheetData>
